--- a/Uploads/excel/2017-05-02.xlsx
+++ b/Uploads/excel/2017-05-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="26">
   <si>
     <t>2017-03</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -800,6 +800,8221 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>2</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>2</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16">
+        <v>5</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>2</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>2</v>
+      </c>
+      <c r="O24">
+        <v>2</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>4</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>2</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>5</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>2</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32">
+        <v>5</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>2</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38">
+        <v>2</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39">
+        <v>2</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40">
+        <v>2</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+      <c r="M41">
+        <v>5</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41">
+        <v>2</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+      <c r="M45">
+        <v>5</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <v>2</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>5</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+      <c r="M47">
+        <v>5</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" t="s">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>3</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>5</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50">
+        <v>2</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>5</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52">
+        <v>5</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53">
+        <v>2</v>
+      </c>
+      <c r="O53">
+        <v>2</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>4</v>
+      </c>
+      <c r="M55">
+        <v>5</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57">
+        <v>4</v>
+      </c>
+      <c r="M57">
+        <v>5</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" t="s">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>3</v>
+      </c>
+      <c r="N59">
+        <v>2</v>
+      </c>
+      <c r="O59">
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>4</v>
+      </c>
+      <c r="M60">
+        <v>5</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60">
+        <v>2</v>
+      </c>
+      <c r="P60">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>4</v>
+      </c>
+      <c r="M61">
+        <v>5</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>4</v>
+      </c>
+      <c r="M62">
+        <v>5</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>2</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" t="s">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>3</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" t="s">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>3</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="P64">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65">
+        <v>4</v>
+      </c>
+      <c r="M65">
+        <v>5</v>
+      </c>
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66">
+        <v>4</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66">
+        <v>2</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>4</v>
+      </c>
+      <c r="M67">
+        <v>5</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67">
+        <v>2</v>
+      </c>
+      <c r="P67">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>3</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68">
+        <v>2</v>
+      </c>
+      <c r="P68">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>3</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69">
+        <v>2</v>
+      </c>
+      <c r="P69">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70">
+        <v>5</v>
+      </c>
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70">
+        <v>2</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71">
+        <v>4</v>
+      </c>
+      <c r="M71">
+        <v>5</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71">
+        <v>2</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>4</v>
+      </c>
+      <c r="M72">
+        <v>5</v>
+      </c>
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>2</v>
+      </c>
+      <c r="P72">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" t="s">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>3</v>
+      </c>
+      <c r="N73">
+        <v>2</v>
+      </c>
+      <c r="O73">
+        <v>2</v>
+      </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" t="s">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>3</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74">
+        <v>2</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75">
+        <v>4</v>
+      </c>
+      <c r="M75">
+        <v>5</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75">
+        <v>2</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76">
+        <v>4</v>
+      </c>
+      <c r="M76">
+        <v>5</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76">
+        <v>2</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>2</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" t="s">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+      <c r="L78">
+        <v>1</v>
+      </c>
+      <c r="M78">
+        <v>3</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78">
+        <v>2</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" t="s">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+      <c r="O79">
+        <v>2</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80">
+        <v>2</v>
+      </c>
+      <c r="P80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>4</v>
+      </c>
+      <c r="M81">
+        <v>5</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81">
+        <v>2</v>
+      </c>
+      <c r="P81">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>4</v>
+      </c>
+      <c r="M82">
+        <v>5</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82">
+        <v>2</v>
+      </c>
+      <c r="P82">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>2</v>
+      </c>
+      <c r="O83">
+        <v>2</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>3</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84">
+        <v>2</v>
+      </c>
+      <c r="P84">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85">
+        <v>3</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>4</v>
+      </c>
+      <c r="M85">
+        <v>5</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85">
+        <v>2</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86">
+        <v>4</v>
+      </c>
+      <c r="M86">
+        <v>5</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86">
+        <v>2</v>
+      </c>
+      <c r="P86">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87">
+        <v>4</v>
+      </c>
+      <c r="M87">
+        <v>5</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87">
+        <v>2</v>
+      </c>
+      <c r="P87">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>3</v>
+      </c>
+      <c r="N88">
+        <v>2</v>
+      </c>
+      <c r="O88">
+        <v>2</v>
+      </c>
+      <c r="P88">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89">
+        <v>3</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89">
+        <v>1</v>
+      </c>
+      <c r="M89">
+        <v>3</v>
+      </c>
+      <c r="N89">
+        <v>2</v>
+      </c>
+      <c r="O89">
+        <v>2</v>
+      </c>
+      <c r="P89">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90">
+        <v>4</v>
+      </c>
+      <c r="M90">
+        <v>5</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90">
+        <v>2</v>
+      </c>
+      <c r="P90">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91">
+        <v>4</v>
+      </c>
+      <c r="M91">
+        <v>5</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91">
+        <v>2</v>
+      </c>
+      <c r="P91">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>21</v>
+      </c>
+      <c r="C92">
+        <v>3</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>5</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92">
+        <v>2</v>
+      </c>
+      <c r="P92">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" t="s">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>1</v>
+      </c>
+      <c r="M93">
+        <v>3</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93">
+        <v>2</v>
+      </c>
+      <c r="P93">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F94" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94">
+        <v>2</v>
+      </c>
+      <c r="P94">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>2</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95">
+        <v>4</v>
+      </c>
+      <c r="M95">
+        <v>5</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95">
+        <v>2</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96">
+        <v>3</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>4</v>
+      </c>
+      <c r="M96">
+        <v>5</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96">
+        <v>2</v>
+      </c>
+      <c r="P96">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>2</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97">
+        <v>4</v>
+      </c>
+      <c r="M97">
+        <v>5</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97">
+        <v>2</v>
+      </c>
+      <c r="P97">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F98" t="s">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>3</v>
+      </c>
+      <c r="N98">
+        <v>2</v>
+      </c>
+      <c r="O98">
+        <v>2</v>
+      </c>
+      <c r="P98">
+        <v>1</v>
+      </c>
+      <c r="Q98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
+        <v>3</v>
+      </c>
+      <c r="N99">
+        <v>2</v>
+      </c>
+      <c r="O99">
+        <v>2</v>
+      </c>
+      <c r="P99">
+        <v>1</v>
+      </c>
+      <c r="Q99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100">
+        <v>2</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>2</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>3</v>
+      </c>
+      <c r="L101">
+        <v>4</v>
+      </c>
+      <c r="M101">
+        <v>5</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101">
+        <v>2</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>2</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>3</v>
+      </c>
+      <c r="L102">
+        <v>4</v>
+      </c>
+      <c r="M102">
+        <v>5</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102">
+        <v>2</v>
+      </c>
+      <c r="P102">
+        <v>1</v>
+      </c>
+      <c r="Q102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>3</v>
+      </c>
+      <c r="N103">
+        <v>2</v>
+      </c>
+      <c r="O103">
+        <v>2</v>
+      </c>
+      <c r="P103">
+        <v>1</v>
+      </c>
+      <c r="Q103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>2</v>
+      </c>
+      <c r="O104">
+        <v>2</v>
+      </c>
+      <c r="P104">
+        <v>1</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+      <c r="L105">
+        <v>4</v>
+      </c>
+      <c r="M105">
+        <v>5</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105">
+        <v>2</v>
+      </c>
+      <c r="P105">
+        <v>1</v>
+      </c>
+      <c r="Q105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <v>3</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>2</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106">
+        <v>4</v>
+      </c>
+      <c r="M106">
+        <v>5</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106">
+        <v>2</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>3</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>5</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107">
+        <v>2</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+      <c r="Q107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" t="s">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="M108">
+        <v>3</v>
+      </c>
+      <c r="N108">
+        <v>2</v>
+      </c>
+      <c r="O108">
+        <v>2</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" t="s">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>3</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109">
+        <v>2</v>
+      </c>
+      <c r="P109">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>24</v>
+      </c>
+      <c r="C110">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>3</v>
+      </c>
+      <c r="L110">
+        <v>4</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110">
+        <v>2</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>3</v>
+      </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111">
+        <v>2</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>3</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+      <c r="M112">
+        <v>5</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112">
+        <v>2</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>22</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" t="s">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113">
+        <v>2</v>
+      </c>
+      <c r="P113">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>23</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" t="s">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>2</v>
+      </c>
+      <c r="O114">
+        <v>2</v>
+      </c>
+      <c r="P114">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>2</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>3</v>
+      </c>
+      <c r="L115">
+        <v>4</v>
+      </c>
+      <c r="M115">
+        <v>5</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115">
+        <v>2</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>4</v>
+      </c>
+      <c r="M116">
+        <v>5</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116">
+        <v>2</v>
+      </c>
+      <c r="P116">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117">
+        <v>3</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <v>4</v>
+      </c>
+      <c r="M117">
+        <v>5</v>
+      </c>
+      <c r="N117">
+        <v>3</v>
+      </c>
+      <c r="O117">
+        <v>2</v>
+      </c>
+      <c r="P117">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>3</v>
+      </c>
+      <c r="N118">
+        <v>2</v>
+      </c>
+      <c r="O118">
+        <v>2</v>
+      </c>
+      <c r="P118">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>2</v>
+      </c>
+      <c r="O119">
+        <v>2</v>
+      </c>
+      <c r="P119">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>3</v>
+      </c>
+      <c r="L120">
+        <v>4</v>
+      </c>
+      <c r="M120">
+        <v>5</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120">
+        <v>2</v>
+      </c>
+      <c r="P120">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121">
+        <v>3</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>3</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>5</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121">
+        <v>2</v>
+      </c>
+      <c r="P121">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122">
+        <v>3</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>5</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122">
+        <v>2</v>
+      </c>
+      <c r="P122">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123">
+        <v>3</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>3</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123">
+        <v>2</v>
+      </c>
+      <c r="P123">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>3</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124">
+        <v>2</v>
+      </c>
+      <c r="P124">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>4</v>
+      </c>
+      <c r="M125">
+        <v>5</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125">
+        <v>2</v>
+      </c>
+      <c r="P125">
+        <v>1</v>
+      </c>
+      <c r="Q125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126">
+        <v>3</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>4</v>
+      </c>
+      <c r="M126">
+        <v>5</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126">
+        <v>2</v>
+      </c>
+      <c r="P126">
+        <v>1</v>
+      </c>
+      <c r="Q126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127">
+        <v>4</v>
+      </c>
+      <c r="M127">
+        <v>5</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127">
+        <v>2</v>
+      </c>
+      <c r="P127">
+        <v>1</v>
+      </c>
+      <c r="Q127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128">
+        <v>2</v>
+      </c>
+      <c r="P128">
+        <v>1</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" t="s">
+        <v>23</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>3</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129">
+        <v>2</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+      <c r="Q129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130">
+        <v>3</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>4</v>
+      </c>
+      <c r="M130">
+        <v>5</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130">
+        <v>2</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+      <c r="Q130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>3</v>
+      </c>
+      <c r="L131">
+        <v>4</v>
+      </c>
+      <c r="M131">
+        <v>5</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131">
+        <v>2</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>2</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <v>4</v>
+      </c>
+      <c r="M132">
+        <v>5</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132">
+        <v>2</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
+      </c>
+      <c r="Q132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>22</v>
+      </c>
+      <c r="C133">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>3</v>
+      </c>
+      <c r="N133">
+        <v>2</v>
+      </c>
+      <c r="O133">
+        <v>2</v>
+      </c>
+      <c r="P133">
+        <v>1</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>23</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>1</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134">
+        <v>2</v>
+      </c>
+      <c r="P134">
+        <v>1</v>
+      </c>
+      <c r="Q134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>4</v>
+      </c>
+      <c r="M135">
+        <v>5</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135">
+        <v>2</v>
+      </c>
+      <c r="P135">
+        <v>1</v>
+      </c>
+      <c r="Q135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>4</v>
+      </c>
+      <c r="M136">
+        <v>5</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136">
+        <v>2</v>
+      </c>
+      <c r="P136">
+        <v>1</v>
+      </c>
+      <c r="Q136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>1</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
+      </c>
+      <c r="I137">
+        <v>2</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>3</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>5</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137">
+        <v>2</v>
+      </c>
+      <c r="P137">
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138" t="s">
+        <v>2</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138">
+        <v>2</v>
+      </c>
+      <c r="P138">
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>23</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139">
+        <v>2</v>
+      </c>
+      <c r="P139">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>24</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>3</v>
+      </c>
+      <c r="L140">
+        <v>4</v>
+      </c>
+      <c r="M140">
+        <v>5</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140">
+        <v>2</v>
+      </c>
+      <c r="P140">
+        <v>1</v>
+      </c>
+      <c r="Q140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>4</v>
+      </c>
+      <c r="M141">
+        <v>5</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141">
+        <v>2</v>
+      </c>
+      <c r="P141">
+        <v>1</v>
+      </c>
+      <c r="Q141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>1</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>3</v>
+      </c>
+      <c r="L142">
+        <v>4</v>
+      </c>
+      <c r="M142">
+        <v>5</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142">
+        <v>2</v>
+      </c>
+      <c r="P142">
+        <v>1</v>
+      </c>
+      <c r="Q142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F143" t="s">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143">
+        <v>2</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>2</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144">
+        <v>2</v>
+      </c>
+      <c r="P144">
+        <v>1</v>
+      </c>
+      <c r="Q144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>24</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>1</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>3</v>
+      </c>
+      <c r="L145">
+        <v>4</v>
+      </c>
+      <c r="M145">
+        <v>5</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145">
+        <v>2</v>
+      </c>
+      <c r="P145">
+        <v>1</v>
+      </c>
+      <c r="Q145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146">
+        <v>4</v>
+      </c>
+      <c r="M146">
+        <v>5</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146">
+        <v>2</v>
+      </c>
+      <c r="P146">
+        <v>1</v>
+      </c>
+      <c r="Q146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147">
+        <v>3</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>3</v>
+      </c>
+      <c r="L147">
+        <v>4</v>
+      </c>
+      <c r="M147">
+        <v>5</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147">
+        <v>2</v>
+      </c>
+      <c r="P147">
+        <v>1</v>
+      </c>
+      <c r="Q147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>1</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>3</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148">
+        <v>2</v>
+      </c>
+      <c r="P148">
+        <v>1</v>
+      </c>
+      <c r="Q148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>23</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>2</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>3</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149">
+        <v>2</v>
+      </c>
+      <c r="P149">
+        <v>1</v>
+      </c>
+      <c r="Q149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>24</v>
+      </c>
+      <c r="C150">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>4</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150">
+        <v>2</v>
+      </c>
+      <c r="P150">
+        <v>1</v>
+      </c>
+      <c r="Q150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>1</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>3</v>
+      </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="M151">
+        <v>5</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151">
+        <v>2</v>
+      </c>
+      <c r="P151">
+        <v>1</v>
+      </c>
+      <c r="Q151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" t="s">
+        <v>21</v>
+      </c>
+      <c r="C152">
+        <v>3</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>3</v>
+      </c>
+      <c r="L152">
+        <v>4</v>
+      </c>
+      <c r="M152">
+        <v>5</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152">
+        <v>2</v>
+      </c>
+      <c r="P152">
+        <v>1</v>
+      </c>
+      <c r="Q152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153" t="s">
+        <v>22</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>2</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
+        <v>2</v>
+      </c>
+      <c r="O153">
+        <v>2</v>
+      </c>
+      <c r="P153">
+        <v>1</v>
+      </c>
+      <c r="Q153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" t="s">
+        <v>23</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>1</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>3</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154">
+        <v>2</v>
+      </c>
+      <c r="P154">
+        <v>1</v>
+      </c>
+      <c r="Q154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>1</v>
+      </c>
+      <c r="I155">
+        <v>2</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155">
+        <v>4</v>
+      </c>
+      <c r="M155">
+        <v>5</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155">
+        <v>2</v>
+      </c>
+      <c r="P155">
+        <v>1</v>
+      </c>
+      <c r="Q155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>1</v>
+      </c>
+      <c r="I156">
+        <v>2</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156">
+        <v>4</v>
+      </c>
+      <c r="M156">
+        <v>5</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156">
+        <v>2</v>
+      </c>
+      <c r="P156">
+        <v>1</v>
+      </c>
+      <c r="Q156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>1</v>
+      </c>
+      <c r="I157">
+        <v>2</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
+      <c r="L157">
+        <v>4</v>
+      </c>
+      <c r="M157">
+        <v>5</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157">
+        <v>2</v>
+      </c>
+      <c r="P157">
+        <v>1</v>
+      </c>
+      <c r="Q157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>22</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>1</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>3</v>
+      </c>
+      <c r="N158">
+        <v>2</v>
+      </c>
+      <c r="O158">
+        <v>2</v>
+      </c>
+      <c r="P158">
+        <v>1</v>
+      </c>
+      <c r="Q158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>23</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>1</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>3</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159">
+        <v>2</v>
+      </c>
+      <c r="P159">
+        <v>1</v>
+      </c>
+      <c r="Q159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>24</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160">
+        <v>1</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>4</v>
+      </c>
+      <c r="M160">
+        <v>5</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160">
+        <v>2</v>
+      </c>
+      <c r="P160">
+        <v>1</v>
+      </c>
+      <c r="Q160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>1</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>3</v>
+      </c>
+      <c r="L161">
+        <v>4</v>
+      </c>
+      <c r="M161">
+        <v>5</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161">
+        <v>2</v>
+      </c>
+      <c r="P161">
+        <v>1</v>
+      </c>
+      <c r="Q161">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
